--- a/Results_CppAnalysis.xlsx
+++ b/Results_CppAnalysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tonyb\OneDrive\Desktop\SecureCodeAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC7C1AB-975D-4064-8B77-71CA8805DD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D6B550-254D-4CF6-9CCB-19150D17EDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2748" yWindow="2028" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -372,14 +372,15 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="39.109375" customWidth="1"/>
     <col min="3" max="3" width="36.6640625" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -387,10 +388,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -398,10 +399,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -409,10 +410,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Results_CppAnalysis.xlsx
+++ b/Results_CppAnalysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tonyb\OneDrive\Desktop\SecureCodeAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D6B550-254D-4CF6-9CCB-19150D17EDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D32D146-C259-4258-9588-E03BE47298A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2748" yWindow="2028" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2460" yWindow="1968" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>

--- a/Results_CppAnalysis.xlsx
+++ b/Results_CppAnalysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tonyb\OneDrive\Desktop\SecureCodeAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D32D146-C259-4258-9588-E03BE47298A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BDA585-7B03-4147-8087-E1394878B7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="1968" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -30,12 +30,6 @@
     <t>LLM</t>
   </si>
   <si>
-    <t>CON BP</t>
-  </si>
-  <si>
-    <t>SENZA BP</t>
-  </si>
-  <si>
     <t>GitHub Copilot</t>
   </si>
   <si>
@@ -52,6 +46,12 @@
   </si>
   <si>
     <t>45 warning and 2 syntax error, but 0 vuln</t>
+  </si>
+  <si>
+    <t>WITHOUT BP</t>
+  </si>
+  <si>
+    <t>WITH BP</t>
   </si>
 </sst>
 </file>
@@ -372,7 +372,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -388,32 +388,32 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Results_CppAnalysis.xlsx
+++ b/Results_CppAnalysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tonyb\OneDrive\Desktop\SecureCodeAI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stefano/Desktop/SecureCodeAI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BDA585-7B03-4147-8087-E1394878B7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3E9B71-D6A0-7A47-A970-2D89D24FD6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14180" yWindow="5500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -67,12 +67,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -87,8 +93,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -371,48 +383,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="39.109375" customWidth="1"/>
+    <col min="2" max="2" width="39.1640625" customWidth="1"/>
     <col min="3" max="3" width="36.6640625" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" customWidth="1"/>
+    <col min="4" max="4" width="35.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Results_CppAnalysis.xlsx
+++ b/Results_CppAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stefano/Desktop/SecureCodeAI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3E9B71-D6A0-7A47-A970-2D89D24FD6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6C4468-420C-C747-8109-B87AF1B7416A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14180" yWindow="5500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -384,14 +384,14 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="39.1640625" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
     <col min="4" max="4" width="35.1640625" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Results_CppAnalysis.xlsx
+++ b/Results_CppAnalysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stefano/Desktop/SecureCodeAI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6C4468-420C-C747-8109-B87AF1B7416A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D87968A-5D78-2A40-B0B0-4245A7E91D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14180" yWindow="5500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,8 +58,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -93,12 +101,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -384,7 +395,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection sqref="A1:C3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -407,7 +418,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -418,7 +429,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
